--- a/Soll ist Zeitvergleich.xlsx
+++ b/Soll ist Zeitvergleich.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Zeitplanung</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Wirtschaftlichkeitsanalyse durchführen</t>
   </si>
   <si>
-    <t>Pflichtenheft erstellen</t>
-  </si>
-  <si>
     <t>Stakeholderanalyse durchführen</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>QM-Plan erstellen</t>
   </si>
   <si>
-    <t>Technischers Grobkonzept erstellen</t>
-  </si>
-  <si>
     <t>Serverkonfiguration planen</t>
   </si>
   <si>
@@ -110,18 +104,12 @@
     <t>Server- / Clientkonfigurierung</t>
   </si>
   <si>
-    <t>Testen</t>
-  </si>
-  <si>
     <t>Projektabschluss</t>
   </si>
   <si>
     <t>Wirtschaftlichkeitsnachbetrachtung abschließen</t>
   </si>
   <si>
-    <t>Abnahme mit Kunden durchführen (Abnahmeprotokoll)</t>
-  </si>
-  <si>
     <t>Gesammtreview</t>
   </si>
   <si>
@@ -159,13 +147,79 @@
   </si>
   <si>
     <t>+1</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abnahme mit Kunden durchführen (Abnahmeprotokoll) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>∆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Technischers Grobkonzept erstellen                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>∆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testen                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ∆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pflichtenheft erstellen                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>∆</t>
+    </r>
+  </si>
+  <si>
+    <t>∆ = Meilenstein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +229,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,57 +465,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -722,414 +802,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>0.5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>6</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="C20" s="14">
+        <v>10</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D24" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16">
+        <v>3</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8">
+        <v>12</v>
+      </c>
+      <c r="C27" s="8">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="9">
+        <v>16</v>
+      </c>
+      <c r="C28" s="14">
+        <v>18</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="9">
+        <v>35</v>
+      </c>
+      <c r="C29" s="9">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="23">
+        <v>6</v>
+      </c>
+      <c r="C30" s="24">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="C12" s="9">
-        <v>9</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <v>3</v>
-      </c>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="C34" s="9">
         <v>5</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8">
-        <v>16</v>
-      </c>
-      <c r="C28" s="9">
-        <v>18</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10">
-        <v>35</v>
-      </c>
-      <c r="C29" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="22">
-        <v>6</v>
-      </c>
-      <c r="C30" s="23">
-        <v>3</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8">
-        <v>6</v>
-      </c>
-      <c r="C32" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8">
-        <v>3</v>
-      </c>
-      <c r="C33" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8">
-        <v>5</v>
-      </c>
-      <c r="C34" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="10">
-        <v>12.5</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0</v>
+      <c r="B36" s="26">
+        <f>SUM(B3:B35)</f>
+        <v>144</v>
+      </c>
+      <c r="C36" s="26">
+        <f>SUM(C3:C35)</f>
+        <v>144</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Soll ist Zeitvergleich.xlsx
+++ b/Soll ist Zeitvergleich.xlsx
@@ -167,8 +167,11 @@
     </r>
   </si>
   <si>
+    <t>∆ = Meilenstein</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Technischers Grobkonzept erstellen                             </t>
+      <t xml:space="preserve">Technischers Grobkonzept erstellen                               </t>
     </r>
     <r>
       <rPr>
@@ -183,7 +186,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Testen                                                                            </t>
+      <t xml:space="preserve">Testen                                                                             </t>
     </r>
     <r>
       <rPr>
@@ -198,7 +201,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pflichtenheft erstellen                                                    </t>
+      <t xml:space="preserve">Pflichtenheft erstellen                                                     </t>
     </r>
     <r>
       <rPr>
@@ -210,9 +213,6 @@
       </rPr>
       <t>∆</t>
     </r>
-  </si>
-  <si>
-    <t>∆ = Meilenstein</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -323,21 +323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -418,7 +403,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -427,10 +412,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -439,48 +466,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,40 +486,52 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -804,457 +814,458 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>0.5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.5</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="6">
         <v>4.5</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="9">
         <v>9</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>0.5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>0.5</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="26">
         <v>3</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="18">
         <v>1</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>0.5</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>0.5</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>0.5</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>0.5</v>
       </c>
       <c r="D17" s="2"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="9">
         <v>3</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>0.5</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>6</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="9">
         <v>10</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>1.5</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>1.5</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>4</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6">
         <v>3</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="9">
         <v>5</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="26">
         <v>3</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="11">
         <v>3</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="5">
         <v>12</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>12</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>16</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="9">
         <v>18</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="6">
         <v>35</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>35</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="26">
         <v>6</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="28">
         <v>3</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="6">
         <v>6</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>6</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="6">
         <v>3</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>3</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>5</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="6">
         <v>7.5</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <v>0</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="16">
         <f>SUM(B3:B35)</f>
         <v>144</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="16">
         <f>SUM(C3:C35)</f>
         <v>144</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>46</v>
+      <c r="A37" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
